--- a/Demography.xlsx
+++ b/Demography.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16420" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16420" windowWidth="28800" xWindow="0" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1618 lake sims parkway oc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="451 clear blue way mcdono" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>118,650</t>
+          <t>29,314 (100%)</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>2.2%(per year)</t>
+          <t>2.92%(per year)</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>1.76%(per year)</t>
+          <t>1.92%(per year)</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>$81,551</t>
+          <t>$63,043</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>$102,507</t>
+          <t>$84,267</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>43,065 (100%)</t>
+          <t>11,561 (100%)</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>30,867 (71.7%)</t>
+          <t>6,674 (57.7%)</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>9,565 (22.2%)</t>
+          <t>3,973 (34.4%)</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>2,633 ( 6.1%)</t>
+          <t>913 ( 7.9%)</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>$201,118</t>
+          <t>$172,046</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/451+Clear+Blue+Way,+McDonough,+GA+30253,+USA/@33.4500017,-84.162095,21z/data=!4m5!3m4!1s0x88f45a46fdfa89cb:0x798192984c4bcdd6!8m2!3d33.4500017!4d-84.1619582</t>
+          <t>https://www.google.com/maps/place/451+Clear+Blue+Way,+McDonough,+GA+30253,+USA/@33.4500017,-84.1641469,17z/data=!3m1!4b1!4m5!3m4!1s0x88f45a46fdfa89cb:0x798192984c4bcdd6!8m2!3d33.4500017!4d-84.1619582</t>
         </is>
       </c>
       <c r="C13" s="6" t="n"/>
